--- a/uploads/Beystat/Beystat-catalogue.xlsx
+++ b/uploads/Beystat/Beystat-catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36B167-F032-4320-BA14-3865E00672D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E943976-13C8-4402-B705-6CBB72723747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8950F7B-54FE-488A-B929-74F90083A4FF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="654">
   <si>
     <t>tablets</t>
   </si>
@@ -1985,6 +1985,9 @@
   </si>
   <si>
     <t>xpiry</t>
+  </si>
+  <si>
+    <t>o/s</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1995,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2055,7 +2058,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A300584F-DB09-4179-8891-79D4FA51BCDD}">
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>653</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2648,7 +2651,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>653</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -2684,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>653</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -3872,7 +3875,7 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>653</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
